--- a/Code/Results/Cases/Case_3_187/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_187/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9940884538857545</v>
+        <v>1.02318932764533</v>
       </c>
       <c r="D2">
-        <v>1.012744226727756</v>
+        <v>1.027559680384708</v>
       </c>
       <c r="E2">
-        <v>1.009899105918581</v>
+        <v>1.034127452226345</v>
       </c>
       <c r="F2">
-        <v>1.017676379260296</v>
+        <v>1.04591939632489</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04078093829828</v>
+        <v>1.03048978317118</v>
       </c>
       <c r="J2">
-        <v>1.016447427480604</v>
+        <v>1.028370943506751</v>
       </c>
       <c r="K2">
-        <v>1.024028824127402</v>
+        <v>1.030379054823549</v>
       </c>
       <c r="L2">
-        <v>1.02122223186329</v>
+        <v>1.036927818908924</v>
       </c>
       <c r="M2">
-        <v>1.028894826568362</v>
+        <v>1.048686286123415</v>
       </c>
       <c r="N2">
-        <v>1.009436293933179</v>
+        <v>1.013506424914814</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9979630100210398</v>
+        <v>1.024018927336684</v>
       </c>
       <c r="D3">
-        <v>1.015374374187659</v>
+        <v>1.028138993805809</v>
       </c>
       <c r="E3">
-        <v>1.013219828544591</v>
+        <v>1.034894400584912</v>
       </c>
       <c r="F3">
-        <v>1.021631990427833</v>
+        <v>1.046839479773631</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041533273560847</v>
+        <v>1.030593732677621</v>
       </c>
       <c r="J3">
-        <v>1.018509359891244</v>
+        <v>1.028839536690629</v>
       </c>
       <c r="K3">
-        <v>1.025814244893821</v>
+        <v>1.030766736607205</v>
       </c>
       <c r="L3">
-        <v>1.023686307980232</v>
+        <v>1.037504003075896</v>
       </c>
       <c r="M3">
-        <v>1.031995369929178</v>
+        <v>1.049417624984075</v>
       </c>
       <c r="N3">
-        <v>1.010131128104472</v>
+        <v>1.013663015106559</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.00042464839688</v>
+        <v>1.02455640810911</v>
       </c>
       <c r="D4">
-        <v>1.017047496652757</v>
+        <v>1.028514200357431</v>
       </c>
       <c r="E4">
-        <v>1.015335293173928</v>
+        <v>1.03539166785219</v>
       </c>
       <c r="F4">
-        <v>1.024150953548589</v>
+        <v>1.047436009194921</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042001159121585</v>
+        <v>1.030659812627076</v>
       </c>
       <c r="J4">
-        <v>1.019817497859254</v>
+        <v>1.029142776754282</v>
       </c>
       <c r="K4">
-        <v>1.026944436779351</v>
+        <v>1.031017244454061</v>
       </c>
       <c r="L4">
-        <v>1.025252091965874</v>
+        <v>1.037877171933823</v>
       </c>
       <c r="M4">
-        <v>1.033966380388824</v>
+        <v>1.049891393302172</v>
       </c>
       <c r="N4">
-        <v>1.010571766217423</v>
+        <v>1.01376430557437</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.001448974893682</v>
+        <v>1.024782524823179</v>
       </c>
       <c r="D5">
-        <v>1.0177441626842</v>
+        <v>1.028672019665036</v>
       </c>
       <c r="E5">
-        <v>1.016216906891681</v>
+        <v>1.035600956686621</v>
       </c>
       <c r="F5">
-        <v>1.025200509974215</v>
+        <v>1.047687069281336</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042193393075762</v>
+        <v>1.030687308920232</v>
       </c>
       <c r="J5">
-        <v>1.020361356626145</v>
+        <v>1.029270264549543</v>
       </c>
       <c r="K5">
-        <v>1.027413693947581</v>
+        <v>1.031122473324547</v>
       </c>
       <c r="L5">
-        <v>1.025903675987325</v>
+        <v>1.038034131880308</v>
       </c>
       <c r="M5">
-        <v>1.034786789809555</v>
+        <v>1.050090693851737</v>
       </c>
       <c r="N5">
-        <v>1.0107549158661</v>
+        <v>1.013806879518226</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.001620354900544</v>
+        <v>1.02482050013767</v>
       </c>
       <c r="D6">
-        <v>1.017860747048399</v>
+        <v>1.02869852300499</v>
       </c>
       <c r="E6">
-        <v>1.016364487251388</v>
+        <v>1.035636111087265</v>
       </c>
       <c r="F6">
-        <v>1.025376191464734</v>
+        <v>1.047729239686442</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042225410018871</v>
+        <v>1.030691909012192</v>
       </c>
       <c r="J6">
-        <v>1.020452320722265</v>
+        <v>1.029291670607467</v>
       </c>
       <c r="K6">
-        <v>1.027492143488667</v>
+        <v>1.031140136715318</v>
       </c>
       <c r="L6">
-        <v>1.026012693808613</v>
+        <v>1.038060490781192</v>
       </c>
       <c r="M6">
-        <v>1.034924065769616</v>
+        <v>1.050124164768352</v>
       </c>
       <c r="N6">
-        <v>1.010785546135965</v>
+        <v>1.013814027354775</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.000438376501284</v>
+        <v>1.024559428865855</v>
       </c>
       <c r="D7">
-        <v>1.01705683170097</v>
+        <v>1.028516308824953</v>
       </c>
       <c r="E7">
-        <v>1.01534710339723</v>
+        <v>1.035394463448226</v>
       </c>
       <c r="F7">
-        <v>1.024165014381159</v>
+        <v>1.047439362777748</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042003745220587</v>
+        <v>1.030660181149537</v>
       </c>
       <c r="J7">
-        <v>1.01982478862042</v>
+        <v>1.029144480231729</v>
       </c>
       <c r="K7">
-        <v>1.026950729931544</v>
+        <v>1.031018650861508</v>
       </c>
       <c r="L7">
-        <v>1.025260824438732</v>
+        <v>1.037879268928721</v>
       </c>
       <c r="M7">
-        <v>1.033977374668064</v>
+        <v>1.049894055863666</v>
       </c>
       <c r="N7">
-        <v>1.010574221635058</v>
+        <v>1.013764874483744</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9954074980732659</v>
+        <v>1.023469554145742</v>
       </c>
       <c r="D8">
-        <v>1.013639156831827</v>
+        <v>1.027755388094067</v>
       </c>
       <c r="E8">
-        <v>1.011028392631901</v>
+        <v>1.034386437781702</v>
       </c>
       <c r="F8">
-        <v>1.019021783698736</v>
+        <v>1.046230098615736</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041039152750313</v>
+        <v>1.03052515780328</v>
       </c>
       <c r="J8">
-        <v>1.017149762996325</v>
+        <v>1.028529300020084</v>
       </c>
       <c r="K8">
-        <v>1.024637492909904</v>
+        <v>1.030510145028903</v>
       </c>
       <c r="L8">
-        <v>1.022061021139553</v>
+        <v>1.037122471951787</v>
       </c>
       <c r="M8">
-        <v>1.029950112855848</v>
+        <v>1.048933332032992</v>
       </c>
       <c r="N8">
-        <v>1.009673004831754</v>
+        <v>1.013559352035153</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9861784204924423</v>
+        <v>1.021554292175255</v>
       </c>
       <c r="D9">
-        <v>1.007388514275575</v>
+        <v>1.02641732433878</v>
       </c>
       <c r="E9">
-        <v>1.003152407357892</v>
+        <v>1.032617910138864</v>
       </c>
       <c r="F9">
-        <v>1.009633853610456</v>
+        <v>1.044108296253734</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03919135880336</v>
+        <v>1.030278203588906</v>
       </c>
       <c r="J9">
-        <v>1.012228876184991</v>
+        <v>1.027445551054119</v>
       </c>
       <c r="K9">
-        <v>1.020362844673455</v>
+        <v>1.029611482218715</v>
       </c>
       <c r="L9">
-        <v>1.016194545169656</v>
+        <v>1.035791560344602</v>
       </c>
       <c r="M9">
-        <v>1.022572538312457</v>
+        <v>1.047244648631749</v>
       </c>
       <c r="N9">
-        <v>1.008013830302119</v>
+        <v>1.013196956390623</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9797575733838171</v>
+        <v>1.020281068812164</v>
       </c>
       <c r="D10">
-        <v>1.003056196173903</v>
+        <v>1.025527255712551</v>
       </c>
       <c r="E10">
-        <v>0.9977067118225446</v>
+        <v>1.031444205946584</v>
       </c>
       <c r="F10">
-        <v>1.003136090418636</v>
+        <v>1.04269997770013</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037855349282963</v>
+        <v>1.030107538693363</v>
       </c>
       <c r="J10">
-        <v>1.008797994052943</v>
+        <v>1.026723312962084</v>
       </c>
       <c r="K10">
-        <v>1.017370488435864</v>
+        <v>1.029010694264946</v>
       </c>
       <c r="L10">
-        <v>1.012117496114458</v>
+        <v>1.034906161197247</v>
       </c>
       <c r="M10">
-        <v>1.017448951708499</v>
+        <v>1.046121807606265</v>
       </c>
       <c r="N10">
-        <v>1.006856297124952</v>
+        <v>1.012955226330375</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9769080971887188</v>
+        <v>1.019730627613595</v>
       </c>
       <c r="D11">
-        <v>1.001138273766294</v>
+        <v>1.025142337111718</v>
       </c>
       <c r="E11">
-        <v>0.9952985355032243</v>
+        <v>1.030937262510972</v>
       </c>
       <c r="F11">
-        <v>1.000260843240063</v>
+        <v>1.042091658795893</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037251037673644</v>
+        <v>1.03003221733677</v>
       </c>
       <c r="J11">
-        <v>1.007274111018463</v>
+        <v>1.02641065364439</v>
       </c>
       <c r="K11">
-        <v>1.016038755789543</v>
+        <v>1.028750164113004</v>
       </c>
       <c r="L11">
-        <v>1.010309662555164</v>
+        <v>1.034523236508919</v>
       </c>
       <c r="M11">
-        <v>1.015177842115576</v>
+        <v>1.045636325496163</v>
       </c>
       <c r="N11">
-        <v>1.006342017442921</v>
+        <v>1.0128505288348</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9758387694889425</v>
+        <v>1.019526302031206</v>
       </c>
       <c r="D12">
-        <v>1.000419308955506</v>
+        <v>1.024999436216008</v>
       </c>
       <c r="E12">
-        <v>0.994396145886019</v>
+        <v>1.030749155050055</v>
       </c>
       <c r="F12">
-        <v>0.9991831364272367</v>
+        <v>1.041865928226289</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037022591061358</v>
+        <v>1.03000402660078</v>
       </c>
       <c r="J12">
-        <v>1.006702081981639</v>
+        <v>1.026294530522377</v>
       </c>
       <c r="K12">
-        <v>1.015538480074273</v>
+        <v>1.02865333505805</v>
       </c>
       <c r="L12">
-        <v>1.009631500199573</v>
+        <v>1.034381071650291</v>
       </c>
       <c r="M12">
-        <v>1.01432600300465</v>
+        <v>1.045456105028015</v>
       </c>
       <c r="N12">
-        <v>1.006148950768221</v>
+        <v>1.01281163596822</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9760686458924457</v>
+        <v>1.019570124526951</v>
       </c>
       <c r="D13">
-        <v>1.000573830558185</v>
+        <v>1.025030085519205</v>
       </c>
       <c r="E13">
-        <v>0.9945900742163482</v>
+        <v>1.030789495934544</v>
       </c>
       <c r="F13">
-        <v>0.9994147551352565</v>
+        <v>1.041914337934294</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037071775346896</v>
+        <v>1.03001008323884</v>
       </c>
       <c r="J13">
-        <v>1.0068250592443</v>
+        <v>1.026319438741559</v>
       </c>
       <c r="K13">
-        <v>1.01564604814106</v>
+        <v>1.028674107757694</v>
       </c>
       <c r="L13">
-        <v>1.009777273967932</v>
+        <v>1.0344115632849</v>
       </c>
       <c r="M13">
-        <v>1.014509104477543</v>
+        <v>1.045494757960989</v>
       </c>
       <c r="N13">
-        <v>1.006190457859079</v>
+        <v>1.012819978773476</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9768199317375537</v>
+        <v>1.019713735278897</v>
       </c>
       <c r="D14">
-        <v>1.001078979307319</v>
+        <v>1.025130523338231</v>
       </c>
       <c r="E14">
-        <v>0.9952241066591712</v>
+        <v>1.030921709523241</v>
       </c>
       <c r="F14">
-        <v>1.000171960451462</v>
+        <v>1.042072995211766</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037232235965913</v>
+        <v>1.030029891423684</v>
       </c>
       <c r="J14">
-        <v>1.007226950563887</v>
+        <v>1.026401054609174</v>
       </c>
       <c r="K14">
-        <v>1.015997518494709</v>
+        <v>1.028742161339418</v>
       </c>
       <c r="L14">
-        <v>1.010253742801833</v>
+        <v>1.034511483672343</v>
       </c>
       <c r="M14">
-        <v>1.015107599183412</v>
+        <v>1.045621426178413</v>
       </c>
       <c r="N14">
-        <v>1.006326100581018</v>
+        <v>1.012847314008128</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9772813629720482</v>
+        <v>1.019802236247646</v>
       </c>
       <c r="D15">
-        <v>1.001389340652605</v>
+        <v>1.025192416388271</v>
       </c>
       <c r="E15">
-        <v>0.995613699219111</v>
+        <v>1.031003196428562</v>
       </c>
       <c r="F15">
-        <v>1.000637198922982</v>
+        <v>1.042170779223163</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037330570765602</v>
+        <v>1.03004206769123</v>
       </c>
       <c r="J15">
-        <v>1.00747376782841</v>
+        <v>1.026451342529237</v>
       </c>
       <c r="K15">
-        <v>1.016213321334487</v>
+        <v>1.028784083941339</v>
       </c>
       <c r="L15">
-        <v>1.010546420944633</v>
+        <v>1.034573057295972</v>
       </c>
       <c r="M15">
-        <v>1.015475247763806</v>
+        <v>1.045699485169554</v>
       </c>
       <c r="N15">
-        <v>1.006409401763799</v>
+        <v>1.012864155691312</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9799451829663111</v>
+        <v>1.020317618313079</v>
       </c>
       <c r="D16">
-        <v>1.0031825761985</v>
+        <v>1.025552811910388</v>
       </c>
       <c r="E16">
-        <v>0.997865448383038</v>
+        <v>1.031477877202678</v>
       </c>
       <c r="F16">
-        <v>1.003325574207582</v>
+        <v>1.042740381430482</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037894903200602</v>
+        <v>1.030112507613063</v>
       </c>
       <c r="J16">
-        <v>1.00889830240439</v>
+        <v>1.026744064810263</v>
       </c>
       <c r="K16">
-        <v>1.017458095471369</v>
+        <v>1.029027976791313</v>
       </c>
       <c r="L16">
-        <v>1.012236558645353</v>
+        <v>1.034931584442853</v>
       </c>
       <c r="M16">
-        <v>1.017598540835679</v>
+        <v>1.046154042675233</v>
       </c>
       <c r="N16">
-        <v>1.006890146442952</v>
+        <v>1.012962174234071</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9815972491251529</v>
+        <v>1.020641138729203</v>
       </c>
       <c r="D17">
-        <v>1.00429600663442</v>
+        <v>1.025779010185264</v>
       </c>
       <c r="E17">
-        <v>0.9992642420514402</v>
+        <v>1.031775975444549</v>
       </c>
       <c r="F17">
-        <v>1.004995102234409</v>
+        <v>1.043098078761258</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038241914606463</v>
+        <v>1.03015631238141</v>
       </c>
       <c r="J17">
-        <v>1.009781460258129</v>
+        <v>1.026927702617644</v>
       </c>
       <c r="K17">
-        <v>1.018229128256362</v>
+        <v>1.02918086216439</v>
       </c>
       <c r="L17">
-        <v>1.01328518407971</v>
+        <v>1.03515660296612</v>
       </c>
       <c r="M17">
-        <v>1.018916112418301</v>
+        <v>1.046439367348349</v>
       </c>
       <c r="N17">
-        <v>1.007188154539971</v>
+        <v>1.013023651836622</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9825542297501627</v>
+        <v>1.020829926828272</v>
       </c>
       <c r="D18">
-        <v>1.004941417184487</v>
+        <v>1.02591099467566</v>
       </c>
       <c r="E18">
-        <v>1.000075320272786</v>
+        <v>1.031949974310829</v>
       </c>
       <c r="F18">
-        <v>1.005962990607465</v>
+        <v>1.043306861419049</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038441837239677</v>
+        <v>1.030181725683173</v>
       </c>
       <c r="J18">
-        <v>1.010292913846451</v>
+        <v>1.027034822550828</v>
       </c>
       <c r="K18">
-        <v>1.018675397001037</v>
+        <v>1.029270000382466</v>
       </c>
       <c r="L18">
-        <v>1.013892753717359</v>
+        <v>1.035287896651037</v>
       </c>
       <c r="M18">
-        <v>1.019679582817735</v>
+        <v>1.046605861319754</v>
       </c>
       <c r="N18">
-        <v>1.007360723018002</v>
+        <v>1.013059508066351</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9828794238050116</v>
+        <v>1.020894312908633</v>
       </c>
       <c r="D19">
-        <v>1.005160808619813</v>
+        <v>1.025956005868746</v>
       </c>
       <c r="E19">
-        <v>1.000351070694665</v>
+        <v>1.032009324268721</v>
       </c>
       <c r="F19">
-        <v>1.006292024690187</v>
+        <v>1.043378075251124</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038509587446441</v>
+        <v>1.030190367657496</v>
       </c>
       <c r="J19">
-        <v>1.010466689563961</v>
+        <v>1.027071348846635</v>
       </c>
       <c r="K19">
-        <v>1.018826981809791</v>
+        <v>1.029300387856718</v>
       </c>
       <c r="L19">
-        <v>1.014099236043887</v>
+        <v>1.035332671855085</v>
       </c>
       <c r="M19">
-        <v>1.01993906079628</v>
+        <v>1.046662643098808</v>
       </c>
       <c r="N19">
-        <v>1.007419353905829</v>
+        <v>1.013071733656133</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9814206886081966</v>
+        <v>1.020606419338186</v>
       </c>
       <c r="D20">
-        <v>1.004176965186195</v>
+        <v>1.025754736390437</v>
       </c>
       <c r="E20">
-        <v>0.9991146651824336</v>
+        <v>1.031743979567229</v>
       </c>
       <c r="F20">
-        <v>1.004816593060557</v>
+        <v>1.04305968632904</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03820494112918</v>
+        <v>1.03015162673894</v>
       </c>
       <c r="J20">
-        <v>1.009687087834712</v>
+        <v>1.026907999274559</v>
       </c>
       <c r="K20">
-        <v>1.018146763189915</v>
+        <v>1.029164462852699</v>
       </c>
       <c r="L20">
-        <v>1.013173100020073</v>
+        <v>1.03513245602707</v>
       </c>
       <c r="M20">
-        <v>1.018775273945165</v>
+        <v>1.046408747570449</v>
       </c>
       <c r="N20">
-        <v>1.007156311411397</v>
+        <v>1.013017056138859</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.976599002055024</v>
+        <v>1.019671441813084</v>
       </c>
       <c r="D21">
-        <v>1.000930408866247</v>
+        <v>1.025100944818389</v>
       </c>
       <c r="E21">
-        <v>0.9950376205075305</v>
+        <v>1.030882770549078</v>
       </c>
       <c r="F21">
-        <v>0.9999492541708825</v>
+        <v>1.042026268339258</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037185094973856</v>
+        <v>1.030024064282343</v>
       </c>
       <c r="J21">
-        <v>1.007108770955535</v>
+        <v>1.026377020415955</v>
       </c>
       <c r="K21">
-        <v>1.01589417578024</v>
+        <v>1.028722122806703</v>
       </c>
       <c r="L21">
-        <v>1.010113620540975</v>
+        <v>1.034482057652997</v>
       </c>
       <c r="M21">
-        <v>1.014931588011537</v>
+        <v>1.045584122517184</v>
       </c>
       <c r="N21">
-        <v>1.006286214153387</v>
+        <v>1.012839264557209</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9735040471357376</v>
+        <v>1.019084353414035</v>
       </c>
       <c r="D22">
-        <v>0.9988510626116104</v>
+        <v>1.024690315010699</v>
       </c>
       <c r="E22">
-        <v>0.992428408111106</v>
+        <v>1.030342417041407</v>
       </c>
       <c r="F22">
-        <v>0.9968325344397956</v>
+        <v>1.04137782687406</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03652080531514</v>
+        <v>1.029942628500999</v>
       </c>
       <c r="J22">
-        <v>1.00545289006569</v>
+        <v>1.026043245707878</v>
       </c>
       <c r="K22">
-        <v>1.014445314588051</v>
+        <v>1.028443679481083</v>
       </c>
       <c r="L22">
-        <v>1.008151366895624</v>
+        <v>1.034073534535453</v>
       </c>
       <c r="M22">
-        <v>1.012467001677967</v>
+        <v>1.045066280684394</v>
       </c>
       <c r="N22">
-        <v>1.00572730280777</v>
+        <v>1.012727459596563</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.975150925625492</v>
+        <v>1.019395506633778</v>
       </c>
       <c r="D23">
-        <v>0.9999570637734452</v>
+        <v>1.024907955801787</v>
       </c>
       <c r="E23">
-        <v>0.9938160658026793</v>
+        <v>1.03062876161063</v>
       </c>
       <c r="F23">
-        <v>0.9984902713338232</v>
+        <v>1.041721453191485</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036875179965309</v>
+        <v>1.029985915727861</v>
       </c>
       <c r="J23">
-        <v>1.00633408499089</v>
+        <v>1.026220178673436</v>
       </c>
       <c r="K23">
-        <v>1.015216540068467</v>
+        <v>1.028591318083443</v>
       </c>
       <c r="L23">
-        <v>1.009195353327001</v>
+        <v>1.034290061192761</v>
       </c>
       <c r="M23">
-        <v>1.013778189206251</v>
+        <v>1.045340737895886</v>
       </c>
       <c r="N23">
-        <v>1.006024742528366</v>
+        <v>1.01278673129284</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9815004891938437</v>
+        <v>1.020622107276806</v>
       </c>
       <c r="D24">
-        <v>1.004230767342811</v>
+        <v>1.025765704528905</v>
       </c>
       <c r="E24">
-        <v>0.9991822673842931</v>
+        <v>1.031758436746498</v>
       </c>
       <c r="F24">
-        <v>1.004897271932249</v>
+        <v>1.043077033772323</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038221655518795</v>
+        <v>1.03015374440333</v>
       </c>
       <c r="J24">
-        <v>1.009729742017996</v>
+        <v>1.026916902345377</v>
       </c>
       <c r="K24">
-        <v>1.018183991101389</v>
+        <v>1.029171873110958</v>
       </c>
       <c r="L24">
-        <v>1.013223758557917</v>
+        <v>1.035143366853085</v>
       </c>
       <c r="M24">
-        <v>1.018838928359968</v>
+        <v>1.046422583117335</v>
       </c>
       <c r="N24">
-        <v>1.007170703822053</v>
+        <v>1.013020036458911</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9886098239432091</v>
+        <v>1.022048802742884</v>
       </c>
       <c r="D25">
-        <v>1.009032677507496</v>
+        <v>1.026762905847445</v>
       </c>
       <c r="E25">
-        <v>1.005221668753359</v>
+        <v>1.033074188211561</v>
       </c>
       <c r="F25">
-        <v>1.012101424187437</v>
+        <v>1.044655745733904</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039687060851068</v>
+        <v>1.030343112691979</v>
       </c>
       <c r="J25">
-        <v>1.013526688648034</v>
+        <v>1.027725685578425</v>
       </c>
       <c r="K25">
-        <v>1.021492372555489</v>
+        <v>1.029844109648775</v>
       </c>
       <c r="L25">
-        <v>1.017739462252622</v>
+        <v>1.036135308659861</v>
       </c>
       <c r="M25">
-        <v>1.024514741409752</v>
+        <v>1.047680701557569</v>
       </c>
       <c r="N25">
-        <v>1.008451552917211</v>
+        <v>1.013290669807185</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_187/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_187/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.02318932764533</v>
+        <v>0.9940884538857546</v>
       </c>
       <c r="D2">
-        <v>1.027559680384708</v>
+        <v>1.012744226727756</v>
       </c>
       <c r="E2">
-        <v>1.034127452226345</v>
+        <v>1.009899105918581</v>
       </c>
       <c r="F2">
-        <v>1.04591939632489</v>
+        <v>1.017676379260297</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03048978317118</v>
+        <v>1.040780938298281</v>
       </c>
       <c r="J2">
-        <v>1.028370943506751</v>
+        <v>1.016447427480605</v>
       </c>
       <c r="K2">
-        <v>1.030379054823549</v>
+        <v>1.024028824127403</v>
       </c>
       <c r="L2">
-        <v>1.036927818908924</v>
+        <v>1.021222231863291</v>
       </c>
       <c r="M2">
-        <v>1.048686286123415</v>
+        <v>1.028894826568362</v>
       </c>
       <c r="N2">
-        <v>1.013506424914814</v>
+        <v>1.009436293933179</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024018927336684</v>
+        <v>0.9979630100210405</v>
       </c>
       <c r="D3">
-        <v>1.028138993805809</v>
+        <v>1.015374374187659</v>
       </c>
       <c r="E3">
-        <v>1.034894400584912</v>
+        <v>1.013219828544592</v>
       </c>
       <c r="F3">
-        <v>1.046839479773631</v>
+        <v>1.021631990427834</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030593732677621</v>
+        <v>1.041533273560847</v>
       </c>
       <c r="J3">
-        <v>1.028839536690629</v>
+        <v>1.018509359891244</v>
       </c>
       <c r="K3">
-        <v>1.030766736607205</v>
+        <v>1.025814244893821</v>
       </c>
       <c r="L3">
-        <v>1.037504003075896</v>
+        <v>1.023686307980233</v>
       </c>
       <c r="M3">
-        <v>1.049417624984075</v>
+        <v>1.031995369929178</v>
       </c>
       <c r="N3">
-        <v>1.013663015106559</v>
+        <v>1.010131128104472</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02455640810911</v>
+        <v>1.00042464839688</v>
       </c>
       <c r="D4">
-        <v>1.028514200357431</v>
+        <v>1.017047496652756</v>
       </c>
       <c r="E4">
-        <v>1.03539166785219</v>
+        <v>1.015335293173927</v>
       </c>
       <c r="F4">
-        <v>1.047436009194921</v>
+        <v>1.024150953548589</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030659812627076</v>
+        <v>1.042001159121585</v>
       </c>
       <c r="J4">
-        <v>1.029142776754282</v>
+        <v>1.019817497859253</v>
       </c>
       <c r="K4">
-        <v>1.031017244454061</v>
+        <v>1.02694443677935</v>
       </c>
       <c r="L4">
-        <v>1.037877171933823</v>
+        <v>1.025252091965874</v>
       </c>
       <c r="M4">
-        <v>1.049891393302172</v>
+        <v>1.033966380388823</v>
       </c>
       <c r="N4">
-        <v>1.01376430557437</v>
+        <v>1.010571766217423</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024782524823179</v>
+        <v>1.001448974893681</v>
       </c>
       <c r="D5">
-        <v>1.028672019665036</v>
+        <v>1.017744162684199</v>
       </c>
       <c r="E5">
-        <v>1.035600956686621</v>
+        <v>1.01621690689168</v>
       </c>
       <c r="F5">
-        <v>1.047687069281336</v>
+        <v>1.025200509974215</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030687308920232</v>
+        <v>1.042193393075762</v>
       </c>
       <c r="J5">
-        <v>1.029270264549543</v>
+        <v>1.020361356626144</v>
       </c>
       <c r="K5">
-        <v>1.031122473324547</v>
+        <v>1.02741369394758</v>
       </c>
       <c r="L5">
-        <v>1.038034131880308</v>
+        <v>1.025903675987324</v>
       </c>
       <c r="M5">
-        <v>1.050090693851737</v>
+        <v>1.034786789809554</v>
       </c>
       <c r="N5">
-        <v>1.013806879518226</v>
+        <v>1.0107549158661</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02482050013767</v>
+        <v>1.001620354900543</v>
       </c>
       <c r="D6">
-        <v>1.02869852300499</v>
+        <v>1.017860747048399</v>
       </c>
       <c r="E6">
-        <v>1.035636111087265</v>
+        <v>1.016364487251388</v>
       </c>
       <c r="F6">
-        <v>1.047729239686442</v>
+        <v>1.025376191464734</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030691909012192</v>
+        <v>1.042225410018871</v>
       </c>
       <c r="J6">
-        <v>1.029291670607467</v>
+        <v>1.020452320722265</v>
       </c>
       <c r="K6">
-        <v>1.031140136715318</v>
+        <v>1.027492143488667</v>
       </c>
       <c r="L6">
-        <v>1.038060490781192</v>
+        <v>1.026012693808613</v>
       </c>
       <c r="M6">
-        <v>1.050124164768352</v>
+        <v>1.034924065769616</v>
       </c>
       <c r="N6">
-        <v>1.013814027354775</v>
+        <v>1.010785546135965</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024559428865855</v>
+        <v>1.000438376501284</v>
       </c>
       <c r="D7">
-        <v>1.028516308824953</v>
+        <v>1.01705683170097</v>
       </c>
       <c r="E7">
-        <v>1.035394463448226</v>
+        <v>1.01534710339723</v>
       </c>
       <c r="F7">
-        <v>1.047439362777748</v>
+        <v>1.024165014381158</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030660181149537</v>
+        <v>1.042003745220587</v>
       </c>
       <c r="J7">
-        <v>1.029144480231729</v>
+        <v>1.01982478862042</v>
       </c>
       <c r="K7">
-        <v>1.031018650861508</v>
+        <v>1.026950729931543</v>
       </c>
       <c r="L7">
-        <v>1.037879268928721</v>
+        <v>1.025260824438731</v>
       </c>
       <c r="M7">
-        <v>1.049894055863666</v>
+        <v>1.033977374668064</v>
       </c>
       <c r="N7">
-        <v>1.013764874483744</v>
+        <v>1.010574221635058</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.023469554145742</v>
+        <v>0.9954074980732661</v>
       </c>
       <c r="D8">
-        <v>1.027755388094067</v>
+        <v>1.013639156831827</v>
       </c>
       <c r="E8">
-        <v>1.034386437781702</v>
+        <v>1.011028392631901</v>
       </c>
       <c r="F8">
-        <v>1.046230098615736</v>
+        <v>1.019021783698737</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03052515780328</v>
+        <v>1.041039152750313</v>
       </c>
       <c r="J8">
-        <v>1.028529300020084</v>
+        <v>1.017149762996325</v>
       </c>
       <c r="K8">
-        <v>1.030510145028903</v>
+        <v>1.024637492909904</v>
       </c>
       <c r="L8">
-        <v>1.037122471951787</v>
+        <v>1.022061021139553</v>
       </c>
       <c r="M8">
-        <v>1.048933332032992</v>
+        <v>1.029950112855848</v>
       </c>
       <c r="N8">
-        <v>1.013559352035153</v>
+        <v>1.009673004831754</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.021554292175255</v>
+        <v>0.9861784204924424</v>
       </c>
       <c r="D9">
-        <v>1.02641732433878</v>
+        <v>1.007388514275575</v>
       </c>
       <c r="E9">
-        <v>1.032617910138864</v>
+        <v>1.003152407357892</v>
       </c>
       <c r="F9">
-        <v>1.044108296253734</v>
+        <v>1.009633853610455</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030278203588906</v>
+        <v>1.03919135880336</v>
       </c>
       <c r="J9">
-        <v>1.027445551054119</v>
+        <v>1.012228876184991</v>
       </c>
       <c r="K9">
-        <v>1.029611482218715</v>
+        <v>1.020362844673455</v>
       </c>
       <c r="L9">
-        <v>1.035791560344602</v>
+        <v>1.016194545169656</v>
       </c>
       <c r="M9">
-        <v>1.047244648631749</v>
+        <v>1.022572538312456</v>
       </c>
       <c r="N9">
-        <v>1.013196956390623</v>
+        <v>1.008013830302119</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.020281068812164</v>
+        <v>0.9797575733838162</v>
       </c>
       <c r="D10">
-        <v>1.025527255712551</v>
+        <v>1.003056196173902</v>
       </c>
       <c r="E10">
-        <v>1.031444205946584</v>
+        <v>0.997706711822544</v>
       </c>
       <c r="F10">
-        <v>1.04269997770013</v>
+        <v>1.003136090418636</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030107538693363</v>
+        <v>1.037855349282963</v>
       </c>
       <c r="J10">
-        <v>1.026723312962084</v>
+        <v>1.008797994052943</v>
       </c>
       <c r="K10">
-        <v>1.029010694264946</v>
+        <v>1.017370488435863</v>
       </c>
       <c r="L10">
-        <v>1.034906161197247</v>
+        <v>1.012117496114458</v>
       </c>
       <c r="M10">
-        <v>1.046121807606265</v>
+        <v>1.017448951708499</v>
       </c>
       <c r="N10">
-        <v>1.012955226330375</v>
+        <v>1.006856297124951</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.019730627613595</v>
+        <v>0.9769080971887183</v>
       </c>
       <c r="D11">
-        <v>1.025142337111718</v>
+        <v>1.001138273766293</v>
       </c>
       <c r="E11">
-        <v>1.030937262510972</v>
+        <v>0.9952985355032237</v>
       </c>
       <c r="F11">
-        <v>1.042091658795893</v>
+        <v>1.000260843240063</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03003221733677</v>
+        <v>1.037251037673644</v>
       </c>
       <c r="J11">
-        <v>1.02641065364439</v>
+        <v>1.007274111018463</v>
       </c>
       <c r="K11">
-        <v>1.028750164113004</v>
+        <v>1.016038755789542</v>
       </c>
       <c r="L11">
-        <v>1.034523236508919</v>
+        <v>1.010309662555164</v>
       </c>
       <c r="M11">
-        <v>1.045636325496163</v>
+        <v>1.015177842115575</v>
       </c>
       <c r="N11">
-        <v>1.0128505288348</v>
+        <v>1.006342017442921</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.019526302031206</v>
+        <v>0.9758387694889425</v>
       </c>
       <c r="D12">
-        <v>1.024999436216008</v>
+        <v>1.000419308955506</v>
       </c>
       <c r="E12">
-        <v>1.030749155050055</v>
+        <v>0.994396145886019</v>
       </c>
       <c r="F12">
-        <v>1.041865928226289</v>
+        <v>0.9991831364272366</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03000402660078</v>
+        <v>1.037022591061358</v>
       </c>
       <c r="J12">
-        <v>1.026294530522377</v>
+        <v>1.006702081981639</v>
       </c>
       <c r="K12">
-        <v>1.02865333505805</v>
+        <v>1.015538480074273</v>
       </c>
       <c r="L12">
-        <v>1.034381071650291</v>
+        <v>1.009631500199573</v>
       </c>
       <c r="M12">
-        <v>1.045456105028015</v>
+        <v>1.01432600300465</v>
       </c>
       <c r="N12">
-        <v>1.01281163596822</v>
+        <v>1.006148950768221</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.019570124526951</v>
+        <v>0.9760686458924458</v>
       </c>
       <c r="D13">
-        <v>1.025030085519205</v>
+        <v>1.000573830558185</v>
       </c>
       <c r="E13">
-        <v>1.030789495934544</v>
+        <v>0.9945900742163479</v>
       </c>
       <c r="F13">
-        <v>1.041914337934294</v>
+        <v>0.9994147551352563</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03001008323884</v>
+        <v>1.037071775346896</v>
       </c>
       <c r="J13">
-        <v>1.026319438741559</v>
+        <v>1.006825059244301</v>
       </c>
       <c r="K13">
-        <v>1.028674107757694</v>
+        <v>1.01564604814106</v>
       </c>
       <c r="L13">
-        <v>1.0344115632849</v>
+        <v>1.009777273967932</v>
       </c>
       <c r="M13">
-        <v>1.045494757960989</v>
+        <v>1.014509104477543</v>
       </c>
       <c r="N13">
-        <v>1.012819978773476</v>
+        <v>1.00619045785908</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.019713735278897</v>
+        <v>0.9768199317375531</v>
       </c>
       <c r="D14">
-        <v>1.025130523338231</v>
+        <v>1.001078979307318</v>
       </c>
       <c r="E14">
-        <v>1.030921709523241</v>
+        <v>0.9952241066591707</v>
       </c>
       <c r="F14">
-        <v>1.042072995211766</v>
+        <v>1.000171960451462</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030029891423684</v>
+        <v>1.037232235965913</v>
       </c>
       <c r="J14">
-        <v>1.026401054609174</v>
+        <v>1.007226950563886</v>
       </c>
       <c r="K14">
-        <v>1.028742161339418</v>
+        <v>1.015997518494708</v>
       </c>
       <c r="L14">
-        <v>1.034511483672343</v>
+        <v>1.010253742801832</v>
       </c>
       <c r="M14">
-        <v>1.045621426178413</v>
+        <v>1.015107599183412</v>
       </c>
       <c r="N14">
-        <v>1.012847314008128</v>
+        <v>1.006326100581018</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.019802236247646</v>
+        <v>0.9772813629720479</v>
       </c>
       <c r="D15">
-        <v>1.025192416388271</v>
+        <v>1.001389340652605</v>
       </c>
       <c r="E15">
-        <v>1.031003196428562</v>
+        <v>0.9956136992191109</v>
       </c>
       <c r="F15">
-        <v>1.042170779223163</v>
+        <v>1.000637198922982</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03004206769123</v>
+        <v>1.037330570765602</v>
       </c>
       <c r="J15">
-        <v>1.026451342529237</v>
+        <v>1.00747376782841</v>
       </c>
       <c r="K15">
-        <v>1.028784083941339</v>
+        <v>1.016213321334487</v>
       </c>
       <c r="L15">
-        <v>1.034573057295972</v>
+        <v>1.010546420944633</v>
       </c>
       <c r="M15">
-        <v>1.045699485169554</v>
+        <v>1.015475247763806</v>
       </c>
       <c r="N15">
-        <v>1.012864155691312</v>
+        <v>1.006409401763799</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.020317618313079</v>
+        <v>0.9799451829663107</v>
       </c>
       <c r="D16">
-        <v>1.025552811910388</v>
+        <v>1.0031825761985</v>
       </c>
       <c r="E16">
-        <v>1.031477877202678</v>
+        <v>0.9978654483830376</v>
       </c>
       <c r="F16">
-        <v>1.042740381430482</v>
+        <v>1.003325574207582</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030112507613063</v>
+        <v>1.037894903200602</v>
       </c>
       <c r="J16">
-        <v>1.026744064810263</v>
+        <v>1.00889830240439</v>
       </c>
       <c r="K16">
-        <v>1.029027976791313</v>
+        <v>1.017458095471368</v>
       </c>
       <c r="L16">
-        <v>1.034931584442853</v>
+        <v>1.012236558645353</v>
       </c>
       <c r="M16">
-        <v>1.046154042675233</v>
+        <v>1.017598540835679</v>
       </c>
       <c r="N16">
-        <v>1.012962174234071</v>
+        <v>1.006890146442952</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.020641138729203</v>
+        <v>0.9815972491251539</v>
       </c>
       <c r="D17">
-        <v>1.025779010185264</v>
+        <v>1.00429600663442</v>
       </c>
       <c r="E17">
-        <v>1.031775975444549</v>
+        <v>0.999264242051441</v>
       </c>
       <c r="F17">
-        <v>1.043098078761258</v>
+        <v>1.004995102234411</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03015631238141</v>
+        <v>1.038241914606463</v>
       </c>
       <c r="J17">
-        <v>1.026927702617644</v>
+        <v>1.00978146025813</v>
       </c>
       <c r="K17">
-        <v>1.02918086216439</v>
+        <v>1.018229128256362</v>
       </c>
       <c r="L17">
-        <v>1.03515660296612</v>
+        <v>1.013285184079711</v>
       </c>
       <c r="M17">
-        <v>1.046439367348349</v>
+        <v>1.018916112418302</v>
       </c>
       <c r="N17">
-        <v>1.013023651836622</v>
+        <v>1.007188154539971</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.020829926828272</v>
+        <v>0.9825542297501624</v>
       </c>
       <c r="D18">
-        <v>1.02591099467566</v>
+        <v>1.004941417184487</v>
       </c>
       <c r="E18">
-        <v>1.031949974310829</v>
+        <v>1.000075320272786</v>
       </c>
       <c r="F18">
-        <v>1.043306861419049</v>
+        <v>1.005962990607465</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030181725683173</v>
+        <v>1.038441837239677</v>
       </c>
       <c r="J18">
-        <v>1.027034822550828</v>
+        <v>1.01029291384645</v>
       </c>
       <c r="K18">
-        <v>1.029270000382466</v>
+        <v>1.018675397001037</v>
       </c>
       <c r="L18">
-        <v>1.035287896651037</v>
+        <v>1.013892753717359</v>
       </c>
       <c r="M18">
-        <v>1.046605861319754</v>
+        <v>1.019679582817735</v>
       </c>
       <c r="N18">
-        <v>1.013059508066351</v>
+        <v>1.007360723018002</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.020894312908633</v>
+        <v>0.9828794238050116</v>
       </c>
       <c r="D19">
-        <v>1.025956005868746</v>
+        <v>1.005160808619813</v>
       </c>
       <c r="E19">
-        <v>1.032009324268721</v>
+        <v>1.000351070694665</v>
       </c>
       <c r="F19">
-        <v>1.043378075251124</v>
+        <v>1.006292024690187</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030190367657496</v>
+        <v>1.038509587446441</v>
       </c>
       <c r="J19">
-        <v>1.027071348846635</v>
+        <v>1.010466689563961</v>
       </c>
       <c r="K19">
-        <v>1.029300387856718</v>
+        <v>1.018826981809791</v>
       </c>
       <c r="L19">
-        <v>1.035332671855085</v>
+        <v>1.014099236043887</v>
       </c>
       <c r="M19">
-        <v>1.046662643098808</v>
+        <v>1.01993906079628</v>
       </c>
       <c r="N19">
-        <v>1.013071733656133</v>
+        <v>1.007419353905829</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.020606419338186</v>
+        <v>0.981420688608197</v>
       </c>
       <c r="D20">
-        <v>1.025754736390437</v>
+        <v>1.004176965186196</v>
       </c>
       <c r="E20">
-        <v>1.031743979567229</v>
+        <v>0.9991146651824339</v>
       </c>
       <c r="F20">
-        <v>1.04305968632904</v>
+        <v>1.004816593060556</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03015162673894</v>
+        <v>1.03820494112918</v>
       </c>
       <c r="J20">
-        <v>1.026907999274559</v>
+        <v>1.009687087834712</v>
       </c>
       <c r="K20">
-        <v>1.029164462852699</v>
+        <v>1.018146763189915</v>
       </c>
       <c r="L20">
-        <v>1.03513245602707</v>
+        <v>1.013173100020073</v>
       </c>
       <c r="M20">
-        <v>1.046408747570449</v>
+        <v>1.018775273945165</v>
       </c>
       <c r="N20">
-        <v>1.013017056138859</v>
+        <v>1.007156311411397</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.019671441813084</v>
+        <v>0.9765990020550239</v>
       </c>
       <c r="D21">
-        <v>1.025100944818389</v>
+        <v>1.000930408866246</v>
       </c>
       <c r="E21">
-        <v>1.030882770549078</v>
+        <v>0.995037620507531</v>
       </c>
       <c r="F21">
-        <v>1.042026268339258</v>
+        <v>0.9999492541708828</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030024064282343</v>
+        <v>1.037185094973856</v>
       </c>
       <c r="J21">
-        <v>1.026377020415955</v>
+        <v>1.007108770955535</v>
       </c>
       <c r="K21">
-        <v>1.028722122806703</v>
+        <v>1.01589417578024</v>
       </c>
       <c r="L21">
-        <v>1.034482057652997</v>
+        <v>1.010113620540975</v>
       </c>
       <c r="M21">
-        <v>1.045584122517184</v>
+        <v>1.014931588011537</v>
       </c>
       <c r="N21">
-        <v>1.012839264557209</v>
+        <v>1.006286214153387</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.019084353414035</v>
+        <v>0.9735040471357383</v>
       </c>
       <c r="D22">
-        <v>1.024690315010699</v>
+        <v>0.9988510626116108</v>
       </c>
       <c r="E22">
-        <v>1.030342417041407</v>
+        <v>0.9924284081111068</v>
       </c>
       <c r="F22">
-        <v>1.04137782687406</v>
+        <v>0.996832534439796</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029942628500999</v>
+        <v>1.03652080531514</v>
       </c>
       <c r="J22">
-        <v>1.026043245707878</v>
+        <v>1.005452890065691</v>
       </c>
       <c r="K22">
-        <v>1.028443679481083</v>
+        <v>1.014445314588051</v>
       </c>
       <c r="L22">
-        <v>1.034073534535453</v>
+        <v>1.008151366895624</v>
       </c>
       <c r="M22">
-        <v>1.045066280684394</v>
+        <v>1.012467001677968</v>
       </c>
       <c r="N22">
-        <v>1.012727459596563</v>
+        <v>1.005727302807771</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.019395506633778</v>
+        <v>0.9751509256254915</v>
       </c>
       <c r="D23">
-        <v>1.024907955801787</v>
+        <v>0.9999570637734451</v>
       </c>
       <c r="E23">
-        <v>1.03062876161063</v>
+        <v>0.9938160658026789</v>
       </c>
       <c r="F23">
-        <v>1.041721453191485</v>
+        <v>0.9984902713338223</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029985915727861</v>
+        <v>1.036875179965309</v>
       </c>
       <c r="J23">
-        <v>1.026220178673436</v>
+        <v>1.006334084990889</v>
       </c>
       <c r="K23">
-        <v>1.028591318083443</v>
+        <v>1.015216540068467</v>
       </c>
       <c r="L23">
-        <v>1.034290061192761</v>
+        <v>1.009195353327</v>
       </c>
       <c r="M23">
-        <v>1.045340737895886</v>
+        <v>1.01377818920625</v>
       </c>
       <c r="N23">
-        <v>1.01278673129284</v>
+        <v>1.006024742528366</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.020622107276806</v>
+        <v>0.9815004891938441</v>
       </c>
       <c r="D24">
-        <v>1.025765704528905</v>
+        <v>1.004230767342811</v>
       </c>
       <c r="E24">
-        <v>1.031758436746498</v>
+        <v>0.9991822673842931</v>
       </c>
       <c r="F24">
-        <v>1.043077033772323</v>
+        <v>1.004897271932249</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03015374440333</v>
+        <v>1.038221655518795</v>
       </c>
       <c r="J24">
-        <v>1.026916902345377</v>
+        <v>1.009729742017996</v>
       </c>
       <c r="K24">
-        <v>1.029171873110958</v>
+        <v>1.01818399110139</v>
       </c>
       <c r="L24">
-        <v>1.035143366853085</v>
+        <v>1.013223758557917</v>
       </c>
       <c r="M24">
-        <v>1.046422583117335</v>
+        <v>1.018838928359968</v>
       </c>
       <c r="N24">
-        <v>1.013020036458911</v>
+        <v>1.007170703822054</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.022048802742884</v>
+        <v>0.9886098239432084</v>
       </c>
       <c r="D25">
-        <v>1.026762905847445</v>
+        <v>1.009032677507495</v>
       </c>
       <c r="E25">
-        <v>1.033074188211561</v>
+        <v>1.005221668753358</v>
       </c>
       <c r="F25">
-        <v>1.044655745733904</v>
+        <v>1.012101424187435</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030343112691979</v>
+        <v>1.039687060851068</v>
       </c>
       <c r="J25">
-        <v>1.027725685578425</v>
+        <v>1.013526688648033</v>
       </c>
       <c r="K25">
-        <v>1.029844109648775</v>
+        <v>1.021492372555488</v>
       </c>
       <c r="L25">
-        <v>1.036135308659861</v>
+        <v>1.017739462252621</v>
       </c>
       <c r="M25">
-        <v>1.047680701557569</v>
+        <v>1.024514741409751</v>
       </c>
       <c r="N25">
-        <v>1.013290669807185</v>
+        <v>1.00845155291721</v>
       </c>
     </row>
   </sheetData>
